--- a/doc/商城项目规划表.xlsx
+++ b/doc/商城项目规划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/km-pc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/km-pc/git/chinasofti-store/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -186,21 +186,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2017/11/20-2017/11/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/11/6-2017/11/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛振林</t>
+    <rPh sb="0" eb="1">
+      <t>ge'zhen'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>前端app接口开发</t>
-    <rPh sb="0" eb="1">
-      <t>qian'duan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jie'kou'kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/11/20-2017/11/30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/11/6-2017/11/20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -514,24 +515,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,19 +567,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,31 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -967,91 +954,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="31"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="32">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="23">
         <v>43040</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="10">
         <v>1</v>
       </c>
@@ -1124,11 +1111,11 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
@@ -1199,10 +1186,10 @@
       <c r="AE4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="18" t="s">
+      <c r="AF4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AG4" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1210,23 +1197,23 @@
       <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1251,8 +1238,8 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1288,8 +1275,8 @@
     </row>
     <row r="7" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1324,60 +1311,60 @@
       <c r="AE7" s="5"/>
     </row>
     <row r="8" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="A8" s="27">
+        <v>2</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
       <c r="AA8" s="13"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="5"/>
     </row>
     <row r="9" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <v>2</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="28"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="13"/>
       <c r="J9" s="2"/>
@@ -1404,14 +1391,14 @@
       <c r="AE9" s="5"/>
     </row>
     <row r="10" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="2"/>
@@ -1441,20 +1428,26 @@
       <c r="AE10" s="5"/>
     </row>
     <row r="11" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="27">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1478,23 +1471,17 @@
       <c r="AE11" s="5"/>
     </row>
     <row r="12" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>3</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="28"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="13"/>
       <c r="J12" s="2"/>
@@ -1521,14 +1508,14 @@
       <c r="AE12" s="5"/>
     </row>
     <row r="13" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
@@ -1558,20 +1545,26 @@
       <c r="AE13" s="5"/>
     </row>
     <row r="14" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="27">
+        <v>4</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1595,23 +1588,17 @@
       <c r="AE14" s="5"/>
     </row>
     <row r="15" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>4</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="13"/>
       <c r="J15" s="2"/>
@@ -1638,14 +1625,14 @@
       <c r="AE15" s="5"/>
     </row>
     <row r="16" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2"/>
@@ -1675,20 +1662,26 @@
       <c r="AE16" s="5"/>
     </row>
     <row r="17" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="27">
+        <v>5</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>10</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1712,23 +1705,17 @@
       <c r="AE17" s="5"/>
     </row>
     <row r="18" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
-        <v>5</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="A18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="13"/>
       <c r="J18" s="2"/>
@@ -1755,14 +1742,14 @@
       <c r="AE18" s="5"/>
     </row>
     <row r="19" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="2"/>
@@ -1792,20 +1779,26 @@
       <c r="AE19" s="5"/>
     </row>
     <row r="20" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="27">
+        <v>6</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1829,23 +1822,17 @@
       <c r="AE20" s="5"/>
     </row>
     <row r="21" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
-        <v>6</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>11</v>
-      </c>
+      <c r="A21" s="28"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="13"/>
       <c r="J21" s="2"/>
@@ -1872,14 +1859,14 @@
       <c r="AE21" s="5"/>
     </row>
     <row r="22" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="2"/>
@@ -1909,20 +1896,26 @@
       <c r="AE22" s="5"/>
     </row>
     <row r="23" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="27">
+        <v>7</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1946,23 +1939,17 @@
       <c r="AE23" s="5"/>
     </row>
     <row r="24" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
-        <v>7</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>12</v>
-      </c>
+      <c r="A24" s="28"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="13"/>
       <c r="J24" s="2"/>
@@ -1989,14 +1976,14 @@
       <c r="AE24" s="5"/>
     </row>
     <row r="25" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2"/>
@@ -2026,161 +2013,268 @@
       <c r="AE25" s="5"/>
     </row>
     <row r="26" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="2" t="s">
+      <c r="A26" s="27">
+        <v>8</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="5"/>
+    </row>
+    <row r="27" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="5"/>
+    </row>
+    <row r="28" spans="1:31" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="5"/>
-    </row>
-    <row r="27" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="E28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="8"/>
+    </row>
+    <row r="29" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
         <v>8</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="B29" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="5"/>
-    </row>
-    <row r="28" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="2" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="5"/>
+    </row>
+    <row r="30" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="5"/>
-    </row>
-    <row r="29" spans="1:31" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="7" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="5"/>
+    </row>
+    <row r="31" spans="1:31" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="8"/>
+      <c r="E31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="34">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="F1:AE1"/>
     <mergeCell ref="F2:AE2"/>
     <mergeCell ref="A1:A4"/>
@@ -2188,30 +2282,6 @@
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
